--- a/shell命令.xlsx
+++ b/shell命令.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF0DE4-AC58-47B9-AA5A-D7FDAA0E0730}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,14 +19,290 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Shell命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录信息查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls -a 显示所有,包括隐藏文件
+   -l 显示文件的详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换目录命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前路径命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统信息查看命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uname -a 显示全部信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清屏命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat [path]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd [path]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以管理员身份运行命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件拷贝命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文件命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch [filepath]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp [originpath] [targetpath]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm (options) [filepath]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rm -i 删除前逐一询问
+-f 即使文件属性为只读，也强制删除
+-r 将目录及其子文件全部删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换用户命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su [username]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir [dirname]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文件夹命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmdir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件夹命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动文件命令(可用于重命名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv [oringinpath] [targetpath]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示网络配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifconfig -a 显示所有网卡信息
+ifconfig [网卡名称] up/down/重启 启动/关闭/重启指定网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poweroff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关机命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统帮助命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步写入磁盘命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找文件命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找内容命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看文件夹大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">find </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find -name [filename] 在当前文件中所有子文件夹
+中的符合文件全部找出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grep -r 指定目录下的子目录也会被查
+    -n 显示时标出改行的列数
+   -I 忽略大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grep (options) ["查找内容"] [findpath]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du [dirpath]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du -h 以人类可读的方式显示
+    -s 不显示其下子目录和文件的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘空间检查命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gedit [filepath]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用gedit打开某文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看当前系统进程命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看进程实时运行状态命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +322,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +631,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="G1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="1.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="7:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/shell命令.xlsx
+++ b/shell命令.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFF0DE4-AC58-47B9-AA5A-D7FDAA0E0730}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Shell命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,13 +282,124 @@
   </si>
   <si>
     <t>查看文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载磁盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount [dev目录下要挂载的设备文件] [挂载路径]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg. mount /dev/sdb1 /media/rodney/up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载磁盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo umount [挂载的路径 (/media下)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdisk -l /dev/sd*可以查看分区信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mkfs </t>
+  </si>
+  <si>
+    <t>磁盘格式化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mkfs -t vfat /dev/sdx </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gzip [filename]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gzip压缩工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gzip xxx  压缩文件
+gzip -d xxx.gz  解压缩
+gzip -r xxx  对文件夹进行压缩
+gzip -rd xxx.gz 对文件夹进行解压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bzip2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bzip2压缩工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bzip2 -z是压缩  -d是解压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tar </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar打包工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tar -f :使用归档文件或ARCHIVE设备
+-'c':创建新归档,创建压缩文件
+-x:从归档中解出文件,解压缩
+-j:使用bzip2压缩格式
+-z:使用gzip压缩格式
+-v:打印出命令执行过程
+tar -vcf test.tar test   //将test打包成test.tar
+tar -vxf test.tar     //解包
+tar -vcjf xxx.tar.bz2 xxx   //压缩
+tar -vxjf xxx.tar.bz2     //解压缩
+tar -vczf xxx.tar.gz xxx   //压缩
+tar -vxzf xxx.tar.gz     //解压缩
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rar压缩工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rar -a xxx.rar xxx  //压缩
+rar -x xxx.rar    //解压缩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,24 +741,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="1.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="2.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="7:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="7:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
@@ -670,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
@@ -678,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
@@ -697,7 +809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
@@ -705,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
@@ -713,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -721,7 +833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
@@ -729,7 +841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
@@ -737,7 +849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="7:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
@@ -748,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
@@ -756,7 +868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
@@ -764,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>30</v>
       </c>
@@ -772,7 +884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
@@ -780,7 +892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="7:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="7:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
         <v>34</v>
       </c>
@@ -791,7 +903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
         <v>37</v>
       </c>
@@ -799,7 +911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
         <v>39</v>
       </c>
@@ -807,7 +919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
         <v>42</v>
       </c>
@@ -815,7 +927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="1" t="s">
         <v>43</v>
       </c>
@@ -823,7 +935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="7:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="1" t="s">
         <v>48</v>
       </c>
@@ -834,7 +946,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="7:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22" s="1" t="s">
         <v>51</v>
       </c>
@@ -845,7 +957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="7:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
         <v>52</v>
       </c>
@@ -856,7 +968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24" s="1" t="s">
         <v>54</v>
       </c>
@@ -864,7 +976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="1" t="s">
         <v>56</v>
       </c>
@@ -872,7 +984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>58</v>
       </c>
@@ -880,7 +992,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="1" t="s">
         <v>60</v>
       </c>
@@ -888,12 +1000,100 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/shell命令.xlsx
+++ b/shell命令.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA0F166-F255-4FA0-90E3-AAB4588225D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Shell命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,11 +39,6 @@
   </si>
   <si>
     <t>目录信息查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ls -a 显示所有,包括隐藏文件
-   -l 显示文件的详细信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -395,11 +391,141 @@
 rar -x xxx.rar    //解压缩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ls -a 显示所有,包括隐藏文件
+   -l 显示文件的详细信息  缩写ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nautilus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo nautilus  打开root权限的文件管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">which	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看某个命令的执行文件在那个路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速搜索(不需要指定目录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adduser </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">finger </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp -d   保持软连接关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deluser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">groups </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示组内成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod [权限命令符] [文件路径]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chown [目标用户.用户组]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件所属用户以及用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln(选项) [源文件] [目标文件]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建连接文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln -s  创建软连接
+-f  强制创建连接文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -741,26 +867,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="2.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="1.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="45.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="7:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,321 +905,442 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
+    <row r="4" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="s">
+    </row>
+    <row r="9" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="3" t="s">
+    </row>
+    <row r="12" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="1" t="s">
+    <row r="13" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1" t="s">
+    </row>
+    <row r="14" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="1" t="s">
+    </row>
+    <row r="15" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" s="1" t="s">
+    <row r="16" spans="7:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="7:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="3" t="s">
+    </row>
+    <row r="17" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="1" t="s">
+    </row>
+    <row r="18" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="1" t="s">
+    </row>
+    <row r="19" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="1" t="s">
+    <row r="20" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="1" t="s">
+    </row>
+    <row r="21" spans="7:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="7:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="1" t="s">
+      <c r="I21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="1" t="s">
+    </row>
+    <row r="22" spans="7:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="7:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="1" t="s">
+    <row r="23" spans="7:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="3" t="s">
+    </row>
+    <row r="24" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="1" t="s">
+    </row>
+    <row r="25" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="1" t="s">
+    </row>
+    <row r="26" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="1" t="s">
+    </row>
+    <row r="27" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="1" t="s">
+    </row>
+    <row r="28" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="1" t="s">
+    </row>
+    <row r="29" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="1" t="s">
+    </row>
+    <row r="31" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="1" t="s">
+    </row>
+    <row r="32" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="1" t="s">
+    </row>
+    <row r="33" spans="7:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="7:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="3" t="s">
+    </row>
+    <row r="34" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="1" t="s">
+    </row>
+    <row r="35" spans="7:9" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="7:9" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="3" t="s">
+    </row>
+    <row r="36" spans="7:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="7:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>87</v>
+    </row>
+    <row r="37" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
